--- a/src/main/resources/uploads/sample1.xlsx
+++ b/src/main/resources/uploads/sample1.xlsx
@@ -173,7 +173,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -183,7 +183,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1023" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="81.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
